--- a/ResultadoEleicoesDistritos/BEJA_FERREIRA DO ALENTEJO.xlsx
+++ b/ResultadoEleicoesDistritos/BEJA_FERREIRA DO ALENTEJO.xlsx
@@ -597,25 +597,25 @@
         <v>1858</v>
       </c>
       <c r="H2" t="n">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="I2" t="n">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="J2" t="n">
-        <v>745</v>
+        <v>789</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -624,37 +624,37 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S2" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="T2" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="U2" t="n">
         <v>9</v>
       </c>
       <c r="V2" t="n">
-        <v>1229</v>
+        <v>1149</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1156</v>
+        <v>1140</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
